--- a/data_processed/20250715/BTCUSDQMOMENT_20250715.xlsx
+++ b/data_processed/20250715/BTCUSDQMOMENT_20250715.xlsx
@@ -566,10 +566,18 @@
       <c r="H3" t="n">
         <v>5.857611630900104</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>-0.1805290139085289</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.2074456135354681</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.7395785195415453</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.052775502476929</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">

--- a/data_processed/20250715/BTCUSDQMOMENT_20250715.xlsx
+++ b/data_processed/20250715/BTCUSDQMOMENT_20250715.xlsx
@@ -552,19 +552,19 @@
         <v>0.1232876712328767</v>
       </c>
       <c r="D3" t="n">
-        <v>117751.9304738858</v>
+        <v>117591.8247312488</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.02228494407485797</v>
+        <v>-0.03063365246675705</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1752375917742875</v>
+        <v>0.218308688172155</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.127691539185894</v>
+        <v>-2.349930543709918</v>
       </c>
       <c r="H3" t="n">
-        <v>5.857611630900104</v>
+        <v>31.76095076488103</v>
       </c>
       <c r="I3" t="n">
         <v>-0.1805290139085289</v>
@@ -594,19 +594,19 @@
         <v>0.2</v>
       </c>
       <c r="D4" t="n">
-        <v>118336.871992906</v>
+        <v>118239.923232096</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.02574816420212947</v>
+        <v>-0.03039393502373985</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1997372307966772</v>
+        <v>0.2232792613453317</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.7047599059964413</v>
+        <v>-1.737613789996416</v>
       </c>
       <c r="H4" t="n">
-        <v>10.07580014591752</v>
+        <v>21.14839510600624</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -628,19 +628,19 @@
         <v>0.2958904109589041</v>
       </c>
       <c r="D5" t="n">
-        <v>119104.2449590576</v>
+        <v>118966.0236033464</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.02948852361912786</v>
+        <v>-0.03471270622512351</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2112999751727745</v>
+        <v>0.2317978979356952</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.5607778948314709</v>
+        <v>-1.202008007481708</v>
       </c>
       <c r="H5" t="n">
-        <v>7.362967056693337</v>
+        <v>12.32410070557436</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -662,19 +662,19 @@
         <v>0.3726027397260274</v>
       </c>
       <c r="D6" t="n">
-        <v>119739.4978107819</v>
+        <v>119737.9283833025</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.03313682824203504</v>
+        <v>-0.03325136278406547</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2198166927536764</v>
+        <v>0.2203887710611357</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.5805077817516058</v>
+        <v>-0.5977070996180361</v>
       </c>
       <c r="H6" t="n">
-        <v>7.563264606730201</v>
+        <v>7.668406080852271</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -696,19 +696,19 @@
         <v>0.4493150684931507</v>
       </c>
       <c r="D7" t="n">
-        <v>120283.8484048982</v>
+        <v>120283.1691578465</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.04095560496106998</v>
+        <v>-0.04132931447787107</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2559446190121752</v>
+        <v>0.2594842032796034</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.600655325310787</v>
+        <v>-1.752565880427223</v>
       </c>
       <c r="H7" t="n">
-        <v>14.80547621795774</v>
+        <v>16.69005240226756</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -730,19 +730,19 @@
         <v>0.8712328767123287</v>
       </c>
       <c r="D8" t="n">
-        <v>122661.3666541128</v>
+        <v>122675.1844972577</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.05129926309166816</v>
+        <v>-0.05089586534709097</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2296981618528826</v>
+        <v>0.2283332993542903</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.072711188916758</v>
+        <v>-1.041006549741057</v>
       </c>
       <c r="H8" t="n">
-        <v>8.264637946848209</v>
+        <v>8.050611020791827</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -798,19 +798,19 @@
         <v>1.197260273972603</v>
       </c>
       <c r="D10" t="n">
-        <v>124827.8611703541</v>
+        <v>124827.8243651185</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1250413786626724</v>
+        <v>-0.1264793875796638</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4454003484069566</v>
+        <v>0.4559626492714848</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.838494856457814</v>
+        <v>-1.956310446760939</v>
       </c>
       <c r="H10" t="n">
-        <v>8.827981377094366</v>
+        <v>9.784302688364713</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -832,19 +832,19 @@
         <v>1.443835616438356</v>
       </c>
       <c r="D11" t="n">
-        <v>126895.7721814147</v>
+        <v>126897.7148185333</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1397156522044982</v>
+        <v>-0.1385790421169318</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4583481411326166</v>
+        <v>0.4508392737052024</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.746760060045251</v>
+        <v>-1.670682921823281</v>
       </c>
       <c r="H11" t="n">
-        <v>8.359519185588335</v>
+        <v>7.793436157897712</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -986,19 +986,19 @@
         <v>0.02191780821917808</v>
       </c>
       <c r="D15" t="n">
-        <v>116168.1065918226</v>
+        <v>115963.2299981778</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.0876597628485303</v>
+        <v>-0.09635326435678591</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1654353608690232</v>
+        <v>0.144233387973362</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02664577712608701</v>
+        <v>-0.8875382030323288</v>
       </c>
       <c r="H15" t="n">
-        <v>8.039136794499738</v>
+        <v>4.027310534457601</v>
       </c>
       <c r="I15" t="n">
         <v>0.1688791860593667</v>
@@ -1070,19 +1070,19 @@
         <v>0.00821917808219178</v>
       </c>
       <c r="D17" t="n">
-        <v>116725.4339835993</v>
+        <v>116724.1843808662</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.07358605338758592</v>
+        <v>-0.07372048939007186</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2054225643030733</v>
+        <v>0.205799471962948</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.1541272584266454</v>
+        <v>-0.1647116387313506</v>
       </c>
       <c r="H17" t="n">
-        <v>6.046726783396126</v>
+        <v>6.099566578310869</v>
       </c>
       <c r="I17" t="n">
         <v>0.179199329717527</v>
@@ -1154,19 +1154,19 @@
         <v>0.06575342465753424</v>
       </c>
       <c r="D19" t="n">
-        <v>117623.2973942507</v>
+        <v>117657.9442087174</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.01796238508291817</v>
+        <v>-0.01609327286070889</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1917636229678607</v>
+        <v>0.1847166487167634</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.2649138080499759</v>
+        <v>-0.03157244337971703</v>
       </c>
       <c r="H19" t="n">
-        <v>5.874113328993998</v>
+        <v>4.689487087389645</v>
       </c>
       <c r="I19" t="n">
         <v>-0.06183425308194906</v>

--- a/data_processed/20250715/BTCUSDQMOMENT_20250715.xlsx
+++ b/data_processed/20250715/BTCUSDQMOMENT_20250715.xlsx
@@ -608,10 +608,18 @@
       <c r="H4" t="n">
         <v>21.14839510600624</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>-0.3939252053740044</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.2739221529567009</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-0.358510555451534</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.294804652755347</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">

--- a/data_processed/20250715/BTCUSDQMOMENT_20250715.xlsx
+++ b/data_processed/20250715/BTCUSDQMOMENT_20250715.xlsx
@@ -650,10 +650,18 @@
       <c r="H5" t="n">
         <v>12.32410070557436</v>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>-0.4541269873383775</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.4506361868609465</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.07358145160110161</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.480718658867192</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
